--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Fgf7-Nrp1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Fgf7-Nrp1.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.111425041361</v>
+        <v>13.79659733333333</v>
       </c>
       <c r="H2">
-        <v>13.111425041361</v>
+        <v>41.389792</v>
       </c>
       <c r="I2">
-        <v>0.950064377000635</v>
+        <v>0.9485830781324925</v>
       </c>
       <c r="J2">
-        <v>0.950064377000635</v>
+        <v>0.9485830781324925</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>63.8907605902015</v>
+        <v>102.8289443333334</v>
       </c>
       <c r="N2">
-        <v>63.8907605902015</v>
+        <v>308.486833</v>
       </c>
       <c r="O2">
-        <v>0.4438186181601575</v>
+        <v>0.5559120396302444</v>
       </c>
       <c r="P2">
-        <v>0.4438186181601575</v>
+        <v>0.5559120396302443</v>
       </c>
       <c r="Q2">
-        <v>837.6989183139685</v>
+        <v>1418.689539178749</v>
       </c>
       <c r="R2">
-        <v>837.6989183139685</v>
+        <v>12768.20585260874</v>
       </c>
       <c r="S2">
-        <v>0.4216562589636127</v>
+        <v>0.5273287537233694</v>
       </c>
       <c r="T2">
-        <v>0.4216562589636127</v>
+        <v>0.5273287537233693</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.111425041361</v>
+        <v>13.79659733333333</v>
       </c>
       <c r="H3">
-        <v>13.111425041361</v>
+        <v>41.389792</v>
       </c>
       <c r="I3">
-        <v>0.950064377000635</v>
+        <v>0.9485830781324925</v>
       </c>
       <c r="J3">
-        <v>0.950064377000635</v>
+        <v>0.9485830781324925</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>61.6107436040296</v>
+        <v>63.66262833333334</v>
       </c>
       <c r="N3">
-        <v>61.6107436040296</v>
+        <v>190.987885</v>
       </c>
       <c r="O3">
-        <v>0.4279804284307385</v>
+        <v>0.3441717873742006</v>
       </c>
       <c r="P3">
-        <v>0.4279804284307385</v>
+        <v>0.3441717873742006</v>
       </c>
       <c r="Q3">
-        <v>807.8046465067458</v>
+        <v>878.3276482966578</v>
       </c>
       <c r="R3">
-        <v>807.8046465067458</v>
+        <v>7904.94883466992</v>
       </c>
       <c r="S3">
-        <v>0.4066089591055144</v>
+        <v>0.3264755334737809</v>
       </c>
       <c r="T3">
-        <v>0.4066089591055144</v>
+        <v>0.3264755334737809</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.111425041361</v>
+        <v>13.79659733333333</v>
       </c>
       <c r="H4">
-        <v>13.111425041361</v>
+        <v>41.389792</v>
       </c>
       <c r="I4">
-        <v>0.950064377000635</v>
+        <v>0.9485830781324925</v>
       </c>
       <c r="J4">
-        <v>0.950064377000635</v>
+        <v>0.9485830781324925</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.455414186209</v>
+        <v>18.481835</v>
       </c>
       <c r="N4">
-        <v>18.455414186209</v>
+        <v>55.445505</v>
       </c>
       <c r="O4">
-        <v>0.1282009534091041</v>
+        <v>0.09991617299555507</v>
       </c>
       <c r="P4">
-        <v>0.1282009534091041</v>
+        <v>0.09991617299555505</v>
       </c>
       <c r="Q4">
-        <v>241.9767797097498</v>
+        <v>254.9864354761067</v>
       </c>
       <c r="R4">
-        <v>241.9767797097498</v>
+        <v>2294.87791928496</v>
       </c>
       <c r="S4">
-        <v>0.1217991589315079</v>
+        <v>0.09477879093534225</v>
       </c>
       <c r="T4">
-        <v>0.1217991589315079</v>
+        <v>0.09477879093534224</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.689139803259248</v>
+        <v>0.7478296666666666</v>
       </c>
       <c r="H5">
-        <v>0.689139803259248</v>
+        <v>2.243489</v>
       </c>
       <c r="I5">
-        <v>0.04993562299936507</v>
+        <v>0.05141692186750751</v>
       </c>
       <c r="J5">
-        <v>0.04993562299936507</v>
+        <v>0.05141692186750751</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.8907605902015</v>
+        <v>102.8289443333334</v>
       </c>
       <c r="N5">
-        <v>63.8907605902015</v>
+        <v>308.486833</v>
       </c>
       <c r="O5">
-        <v>0.4438186181601575</v>
+        <v>0.5559120396302444</v>
       </c>
       <c r="P5">
-        <v>0.4438186181601575</v>
+        <v>0.5559120396302443</v>
       </c>
       <c r="Q5">
-        <v>44.02966618321518</v>
+        <v>76.8985351644819</v>
       </c>
       <c r="R5">
-        <v>44.02966618321518</v>
+        <v>692.086816480337</v>
       </c>
       <c r="S5">
-        <v>0.02216235919654478</v>
+        <v>0.02858328590687502</v>
       </c>
       <c r="T5">
-        <v>0.02216235919654478</v>
+        <v>0.02858328590687501</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.689139803259248</v>
+        <v>0.7478296666666666</v>
       </c>
       <c r="H6">
-        <v>0.689139803259248</v>
+        <v>2.243489</v>
       </c>
       <c r="I6">
-        <v>0.04993562299936507</v>
+        <v>0.05141692186750751</v>
       </c>
       <c r="J6">
-        <v>0.04993562299936507</v>
+        <v>0.05141692186750751</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>61.6107436040296</v>
+        <v>63.66262833333334</v>
       </c>
       <c r="N6">
-        <v>61.6107436040296</v>
+        <v>190.987885</v>
       </c>
       <c r="O6">
-        <v>0.4279804284307385</v>
+        <v>0.3441717873742006</v>
       </c>
       <c r="P6">
-        <v>0.4279804284307385</v>
+        <v>0.3441717873742006</v>
       </c>
       <c r="Q6">
-        <v>42.45841572593693</v>
+        <v>47.60880212564056</v>
       </c>
       <c r="R6">
-        <v>42.45841572593693</v>
+        <v>428.479219130765</v>
       </c>
       <c r="S6">
-        <v>0.0213714693252241</v>
+        <v>0.01769625390041968</v>
       </c>
       <c r="T6">
-        <v>0.0213714693252241</v>
+        <v>0.01769625390041968</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.689139803259248</v>
+        <v>0.7478296666666666</v>
       </c>
       <c r="H7">
-        <v>0.689139803259248</v>
+        <v>2.243489</v>
       </c>
       <c r="I7">
-        <v>0.04993562299936507</v>
+        <v>0.05141692186750751</v>
       </c>
       <c r="J7">
-        <v>0.04993562299936507</v>
+        <v>0.05141692186750751</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.455414186209</v>
+        <v>18.481835</v>
       </c>
       <c r="N7">
-        <v>18.455414186209</v>
+        <v>55.445505</v>
       </c>
       <c r="O7">
-        <v>0.1282009534091041</v>
+        <v>0.09991617299555507</v>
       </c>
       <c r="P7">
-        <v>0.1282009534091041</v>
+        <v>0.09991617299555505</v>
       </c>
       <c r="Q7">
-        <v>12.718360501352</v>
+        <v>13.82126450743833</v>
       </c>
       <c r="R7">
-        <v>12.718360501352</v>
+        <v>124.391380566945</v>
       </c>
       <c r="S7">
-        <v>0.006401794477596188</v>
+        <v>0.005137382060212819</v>
       </c>
       <c r="T7">
-        <v>0.006401794477596188</v>
+        <v>0.005137382060212818</v>
       </c>
     </row>
   </sheetData>
